--- a/biology/Médecine/Werner_Köhler/Werner_Köhler.xlsx
+++ b/biology/Médecine/Werner_Köhler/Werner_Köhler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Werner_K%C3%B6hler</t>
+          <t>Werner_Köhler</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Werner Köhler (né le 24 mars 1929 à Dresde et mort le 2 août 2021 à Fribourg-en-Brisgau) est un microbiologiste, immunologiste et ethnologue allemand ainsi qu'un historien de la médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Werner_K%C3%B6hler</t>
+          <t>Werner_Köhler</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Études, formations spécialisées, doctorats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de contremaître, il termine ses études secondaires en 1945 puis étudie la médecine à l'université d'Iéna jusqu'en 1951[1]. À partir de 1946, il étudie l'anthropologie et l'ethnologie au même endroit. Politiquement, il s'oriente vers le Parti national-démocrate d'Allemagne (NDPD), dont il devient membre en 1950. À partir d'avril 1982 (12e congrès du parti) jusqu'en 1990, il est membre du comité principal du NDPD.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de contremaître, il termine ses études secondaires en 1945 puis étudie la médecine à l'université d'Iéna jusqu'en 1951. À partir de 1946, il étudie l'anthropologie et l'ethnologie au même endroit. Politiquement, il s'oriente vers le Parti national-démocrate d'Allemagne (NDPD), dont il devient membre en 1950. À partir d'avril 1982 (12e congrès du parti) jusqu'en 1990, il est membre du comité principal du NDPD.
 Dans les années 1951 à 1953, il effectue des stages obligatoires dans des cliniques universitaires de Thuringe dans le cadre de sa formation médicale. En 1952, il pratique la chirurgie à la clinique universitaire de Chemnitz. En 1953, il travaille comme assistant à l'Institut de recherche pour la microbiologie et l'hygiène à Bad Elster. Il obtient son doctorat en sciences naturelles à l'université d'Iéna en 1953 sur le sujet du mortier en bois africain. Une contribution à l'histoire des débuts de l'industrie alimentaire. Puis en 1954 il se rend à l'Institut d'Hygiène de l'Université de Rostock pour y faire son doctorat la même année en médecine avec les travaux Streptolysine (de) et Antistreptolysine O avec une attention particulière à la réaction antistreptolysin à l'Université de Rostock.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Werner_K%C3%B6hler</t>
+          <t>Werner_Köhler</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Habilitation et chargé de cours</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1956, il est nommé médecin-chef et spécialiste en bactériologie et sérologie[2]. Le 27 mai 1957, il obtient son habilitation à l'Université de Rostock avec le thèse Pseudomonas aeruginosa (Bact. pyocyaneum) : Cytologie, cycle L, biochimie et sérologie[3]. Cela est suivi par sa nomination comme professeur en microbiologie médicale à l'Université de Rostock en 1957, puis à l'université Friedrich-Schiller de Iéna en 1958, dans le cadre d'un changement d'habilitation et d'une reconnaissance du poste de maître de conférences.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1956, il est nommé médecin-chef et spécialiste en bactériologie et sérologie. Le 27 mai 1957, il obtient son habilitation à l'Université de Rostock avec le thèse Pseudomonas aeruginosa (Bact. pyocyaneum) : Cytologie, cycle L, biochimie et sérologie. Cela est suivi par sa nomination comme professeur en microbiologie médicale à l'Université de Rostock en 1957, puis à l'université Friedrich-Schiller de Iéna en 1958, dans le cadre d'un changement d'habilitation et d'une reconnaissance du poste de maître de conférences.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Werner_K%C3%B6hler</t>
+          <t>Werner_Köhler</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Professeur, directeur et président de l'institut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1958, il prend la direction du Département de microbiologie médicale de l'Institut central de microbiologie et de thérapie expérimentale (de) (ZIMET) de l'Académie allemande des sciences (DAW) à Iéna. Il est nommé professeur à la DAW de Berlin en 1961. De 1966 à 1972, il occupe également le poste de directeur d'institut à l'Institut de recherche en microbiologie et hygiène de Bad Elster. En 1970, il est nommé chef de division au ZIMET et en 1976 directeur adjoint de l'institut. À partir de 1992, il participe à la fondation de l'Institut de microbiologie expérimentale de l'Université d'Iéna. De 1993 à 1995, il occupe la chaire de microbiologie expérimentale et d'immunochimie à l'Université d'Iéna.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Werner_K%C3%B6hler</t>
+          <t>Werner_Köhler</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Centre de son travail</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est principalement concerné par la recherche sur les streptocoques dans le domaine de la microbiologie médicale. L'accent est mis sur la sérologie et la pathologie de l'infection streptococcique. Les études sur la protéine M de la paroi cellulaire comme point de départ pour le développement d'une vaccination protectrice sont des points importants. Ce travail est réalisé en coopération avec l'Institut de pathologie et de thérapie expérimentales de Soukhoumi, où des expériences de vaccinations protectrices sur des singes rhésus sont menées.
 Des études individuelles sur les toxines dans la zone extracellulaire, les soi-disant toxines érythrogéniques des streptocoques, sont menées en coopération avec l'Institut de bactériologie clinique d'Umeå, en Suède, afin de développer une vaccination antitoxique. Des travaux sur le développement d'un agent thrombolytique streptokinase sont également lieu en RDA afin de le produire en RDA.
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Werner_K%C3%B6hler</t>
+          <t>Werner_Köhler</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Adhésions et bureaux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1968 Académie allemande des sciences naturelles Léopoldine
 1970 Membre correspondant de la DAW à Berlin (plus tard : Académie des sciences de la RDA)
@@ -665,7 +687,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Werner_K%C3%B6hler</t>
+          <t>Werner_Köhler</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,13 +705,15 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1970 Prix Rudolf-Virchow (de)
 1977 Ordre de la Bannière du Travail de Ier niveau (collectivement)
 1982 Nomination en tant que docteur en médecine par l'Université d'Umeå (Suède)
 1985 Ordre du mérite patriotique en argent
-1992 Prix Aronson (de) du Sénat de Berlin (décerné en 1972)[4]
+1992 Prix Aronson (de) du Sénat de Berlin (décerné en 1972)
 1988 Prix national de la RDA de 3e classe de science et technologie
 1990 Membre honoraire de l'Institut Kitasoto de Tokyo
 1999 Médaille du Mérite de la Léopoldine (de)</t>
@@ -702,7 +726,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Werner_K%C3%B6hler</t>
+          <t>Werner_Köhler</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -720,7 +744,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Menstruation, Schwangerschaft und Geburt in Afrika. In: Wissenschaftliche Zeitschrift Jena, Mathematisch-Naturwissenschaftliche Reihe, 3 (1953/54), S. 129–142
 Die Antistreptolysin-Rektion (ASR). In: Deutsch. Gesundheitswesen 9 (1954), S. 992–997
